--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91535,6 +91535,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5364">
+      <c r="A5364" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B5364" t="n">
+        <v>705</v>
+      </c>
+      <c r="C5364" t="n">
+        <v>710</v>
+      </c>
+      <c r="D5364" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="E5364" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91552,6 +91552,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5365">
+      <c r="A5365" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B5365" t="n">
+        <v>705</v>
+      </c>
+      <c r="C5365" t="n">
+        <v>710</v>
+      </c>
+      <c r="D5365" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="E5365" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91557,16 +91557,16 @@
         <v>45180</v>
       </c>
       <c r="B5365" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C5365" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D5365" t="n">
-        <v>707.5</v>
+        <v>712.5</v>
       </c>
       <c r="E5365" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91557,16 +91557,16 @@
         <v>45180</v>
       </c>
       <c r="B5365" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C5365" t="n">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D5365" t="n">
-        <v>712.5</v>
+        <v>714.5</v>
       </c>
       <c r="E5365" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91569,6 +91569,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5366">
+      <c r="A5366" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B5366" t="n">
+        <v>712</v>
+      </c>
+      <c r="C5366" t="n">
+        <v>717</v>
+      </c>
+      <c r="D5366" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="E5366" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91574,16 +91574,16 @@
         <v>45181</v>
       </c>
       <c r="B5366" t="n">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="C5366" t="n">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="D5366" t="n">
-        <v>714.5</v>
+        <v>727.5</v>
       </c>
       <c r="E5366" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91583,7 +91583,7 @@
         <v>727.5</v>
       </c>
       <c r="E5366" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91591,16 +91591,16 @@
         <v>45181</v>
       </c>
       <c r="B5367" t="n">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C5367" t="n">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D5367" t="n">
-        <v>721.5</v>
+        <v>727.5</v>
       </c>
       <c r="E5367" t="n">
-        <v>1.51</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91603,6 +91603,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5368">
+      <c r="A5368" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B5368" t="n">
+        <v>725</v>
+      </c>
+      <c r="C5368" t="n">
+        <v>730</v>
+      </c>
+      <c r="D5368" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="E5368" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91608,16 +91608,16 @@
         <v>45182</v>
       </c>
       <c r="B5368" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C5368" t="n">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D5368" t="n">
-        <v>727.5</v>
+        <v>732.5</v>
       </c>
       <c r="E5368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91617,7 +91617,7 @@
         <v>732.5</v>
       </c>
       <c r="E5368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91620,6 +91620,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5369">
+      <c r="A5369" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B5369" t="n">
+        <v>730</v>
+      </c>
+      <c r="C5369" t="n">
+        <v>735</v>
+      </c>
+      <c r="D5369" t="n">
+        <v>732.5</v>
+      </c>
+      <c r="E5369" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91625,16 +91625,16 @@
         <v>45183</v>
       </c>
       <c r="B5369" t="n">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C5369" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D5369" t="n">
-        <v>732.5</v>
+        <v>722.5</v>
       </c>
       <c r="E5369" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91625,16 +91625,16 @@
         <v>45183</v>
       </c>
       <c r="B5369" t="n">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C5369" t="n">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D5369" t="n">
-        <v>722.5</v>
+        <v>719.5</v>
       </c>
       <c r="E5369" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91603,6 +91603,40 @@
         <v>1.51</v>
       </c>
     </row>
+    <row r="5368">
+      <c r="A5368" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B5368" t="n">
+        <v>725</v>
+      </c>
+      <c r="C5368" t="n">
+        <v>735</v>
+      </c>
+      <c r="D5368" t="n">
+        <v>730</v>
+      </c>
+      <c r="E5368" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5369">
+      <c r="A5369" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B5369" t="n">
+        <v>715</v>
+      </c>
+      <c r="C5369" t="n">
+        <v>725</v>
+      </c>
+      <c r="D5369" t="n">
+        <v>720</v>
+      </c>
+      <c r="E5369" t="n">
+        <v>-1.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91625,16 +91625,16 @@
         <v>45183</v>
       </c>
       <c r="B5369" t="n">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C5369" t="n">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D5369" t="n">
-        <v>720</v>
+        <v>719.5</v>
       </c>
       <c r="E5369" t="n">
-        <v>-1.38</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91637,6 +91637,23 @@
         <v>-1.38</v>
       </c>
     </row>
+    <row r="5370">
+      <c r="A5370" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B5370" t="n">
+        <v>717</v>
+      </c>
+      <c r="C5370" t="n">
+        <v>722</v>
+      </c>
+      <c r="D5370" t="n">
+        <v>719.5</v>
+      </c>
+      <c r="E5370" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91642,13 +91642,13 @@
         <v>45184</v>
       </c>
       <c r="B5370" t="n">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C5370" t="n">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D5370" t="n">
-        <v>719.5</v>
+        <v>722.5</v>
       </c>
       <c r="E5370" t="n">
         <v>0</v>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91642,16 +91642,16 @@
         <v>45184</v>
       </c>
       <c r="B5370" t="n">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C5370" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="D5370" t="n">
-        <v>722.5</v>
+        <v>727.5</v>
       </c>
       <c r="E5370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91654,6 +91654,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5371">
+      <c r="A5371" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B5371" t="n">
+        <v>708</v>
+      </c>
+      <c r="C5371" t="n">
+        <v>718</v>
+      </c>
+      <c r="D5371" t="n">
+        <v>713</v>
+      </c>
+      <c r="E5371" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91654,23 +91654,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5371">
-      <c r="A5371" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="B5371" t="n">
-        <v>725</v>
-      </c>
-      <c r="C5371" t="n">
-        <v>730</v>
-      </c>
-      <c r="D5371" t="n">
-        <v>727.5</v>
-      </c>
-      <c r="E5371" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91654,6 +91654,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5371">
+      <c r="A5371" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B5371" t="n">
+        <v>708</v>
+      </c>
+      <c r="C5371" t="n">
+        <v>718</v>
+      </c>
+      <c r="D5371" t="n">
+        <v>713</v>
+      </c>
+      <c r="E5371" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="5372">
+      <c r="A5372" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B5372" t="n">
+        <v>725</v>
+      </c>
+      <c r="C5372" t="n">
+        <v>735</v>
+      </c>
+      <c r="D5372" t="n">
+        <v>730</v>
+      </c>
+      <c r="E5372" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91688,6 +91688,23 @@
         <v>2.31</v>
       </c>
     </row>
+    <row r="5373">
+      <c r="A5373" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B5373" t="n">
+        <v>730</v>
+      </c>
+      <c r="C5373" t="n">
+        <v>740</v>
+      </c>
+      <c r="D5373" t="n">
+        <v>735</v>
+      </c>
+      <c r="E5373" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91705,6 +91705,23 @@
         <v>0.68</v>
       </c>
     </row>
+    <row r="5374">
+      <c r="A5374" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B5374" t="n">
+        <v>730</v>
+      </c>
+      <c r="C5374" t="n">
+        <v>735</v>
+      </c>
+      <c r="D5374" t="n">
+        <v>732.5</v>
+      </c>
+      <c r="E5374" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91722,6 +91722,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5375">
+      <c r="A5375" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B5375" t="n">
+        <v>735</v>
+      </c>
+      <c r="C5375" t="n">
+        <v>740</v>
+      </c>
+      <c r="D5375" t="n">
+        <v>737.5</v>
+      </c>
+      <c r="E5375" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91727,16 +91727,16 @@
         <v>45190</v>
       </c>
       <c r="B5375" t="n">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C5375" t="n">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D5375" t="n">
-        <v>737.5</v>
+        <v>742.5</v>
       </c>
       <c r="E5375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91739,6 +91739,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5376">
+      <c r="A5376" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B5376" t="n">
+        <v>740</v>
+      </c>
+      <c r="C5376" t="n">
+        <v>745</v>
+      </c>
+      <c r="D5376" t="n">
+        <v>742.5</v>
+      </c>
+      <c r="E5376" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolar.xlsx
+++ b/data/dolar.xlsx
@@ -91753,7 +91753,7 @@
         <v>742.5</v>
       </c>
       <c r="E5376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
